--- a/dist/document/dest/2020/10/doctors/đnk.xlsx
+++ b/dist/document/dest/2020/10/doctors/đnk.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>30</v>
       </c>
-      <c r="C2" s="1">
-        <v>108900</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>90</v>
       </c>
-      <c r="C3" s="1">
-        <v>742500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>150</v>
       </c>
-      <c r="C4" s="1">
-        <v>517500</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>855</v>
       </c>
-      <c r="C5" s="1">
-        <v>6489450</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>20500</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>1111</v>
       </c>
-      <c r="C7" s="1">
-        <v>28108300</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>1205</v>
       </c>
-      <c r="C8" s="1">
-        <v>7886725</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>250</v>
       </c>
-      <c r="C9" s="1">
-        <v>833750</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>100</v>
       </c>
-      <c r="C10" s="1">
-        <v>575000</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>100</v>
       </c>
-      <c r="C11" s="1">
-        <v>605000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>30</v>
       </c>
-      <c r="C12" s="1">
-        <v>508200</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>40</v>
       </c>
-      <c r="C13" s="1">
-        <v>46000</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="1">
-        <v>19500</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>39</v>
       </c>
-      <c r="C15" s="1">
-        <v>10432500</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>270</v>
       </c>
-      <c r="C16" s="1">
-        <v>1024650</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>44</v>
       </c>
-      <c r="C17" s="1">
-        <v>871200</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>270</v>
       </c>
-      <c r="C18" s="1">
-        <v>1086750</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>40</v>
       </c>
-      <c r="C19" s="1">
-        <v>40000</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>20</v>
       </c>
-      <c r="C20" s="1">
-        <v>44400</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="1">
-        <v>25000</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>15</v>
       </c>
-      <c r="C22" s="1">
-        <v>123420</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -636,7 +573,7 @@
         <v>4662</v>
       </c>
       <c r="C23" s="1">
-        <v>60109245</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/đnk.xlsx
+++ b/dist/document/dest/2020/10/doctors/đnk.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,23 +402,32 @@
         <v>Actapulgite (Attapulgite 3g)</v>
       </c>
       <c r="B2" s="1">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="C2" s="1">
+        <v>217800</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Apbezo (Rabeprazole 20mg)</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B3" s="1">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="C3" s="1">
+        <v>207000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Baci-subti (Bacillus subtilis)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B4" s="1">
-        <v>150</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>227700</v>
       </c>
     </row>
     <row r="5">
@@ -426,159 +435,488 @@
         <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B5" s="1">
-        <v>855</v>
+        <v>210</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1593900</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Bar 60v/lọ</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>227700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Chè trĩ BTIKG</v>
+        <v>Bar 60v/lọ</v>
       </c>
       <c r="B7" s="1">
-        <v>1111</v>
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20500</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Diosfort (Diosmin 600mg)</v>
+        <v>Chè trĩ BTIKG</v>
       </c>
       <c r="B8" s="1">
-        <v>1205</v>
+        <v>60</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1518000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Chè trĩ BTIKG</v>
       </c>
       <c r="B9" s="1">
-        <v>250</v>
+        <v>726</v>
+      </c>
+      <c r="C9" s="1">
+        <v>18367800</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Duphalac (Iactulose)</v>
+        <v>Chè trĩ BTIKG</v>
       </c>
       <c r="B10" s="1">
-        <v>100</v>
+        <v>45</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1138500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Enterobella (Bacillus clausii)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>100</v>
+        <v>495</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3239775</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Esomaxcare (Esomeprazole 40mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>30</v>
+        <v>120</v>
+      </c>
+      <c r="C12" s="1">
+        <v>785400</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Flagyl (Metronidazole) 250mg</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>40</v>
+        <v>55</v>
+      </c>
+      <c r="C13" s="1">
+        <v>359975</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Fugaca ( Mebendazole) 500mg</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>490875</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Hemopran (Hemorrhoidai, anti-varicose)</v>
+        <v>Doniwell (Levosulpiride 25mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>39</v>
+        <v>100</v>
+      </c>
+      <c r="C15" s="1">
+        <v>333500</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Hemoral (Diosmin, hesperidin)</v>
+        <v>Duphalac (Iactulose)</v>
       </c>
       <c r="B16" s="1">
-        <v>270</v>
+        <v>20</v>
+      </c>
+      <c r="C16" s="1">
+        <v>115000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Imenir (Cefdinir 300mg)</v>
+        <v>Duphalac (Iactulose)</v>
       </c>
       <c r="B17" s="1">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>57500</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Otibsil (Otilonium bromid 40mg)</v>
+        <v>Duphalac (Lactulose)</v>
       </c>
       <c r="B18" s="1">
-        <v>270</v>
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>57500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Panadol (Paracetamol)</v>
+        <v>Duphalac (Lactulose)</v>
       </c>
       <c r="B19" s="1">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>57500</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v xml:space="preserve">Sorbitol </v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B20" s="1">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="C20" s="1">
+        <v>242000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Tempovat Pm</v>
+        <v>Enterobella (Bacillus clausii)</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>170</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1028500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Zyrtec 10 (Cetirizine)</v>
+        <v>Flagyl (Metronidazole) 250mg</v>
       </c>
       <c r="B22" s="1">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="C22" s="1">
+        <v>46000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
+        <v>Fugaca ( Mebendazole) 500mg</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Gentrisone Pm (Betamethasone, clotrimazol, gentamicin)</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>14850</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Hemopran (Hemorrhoidai, anti-varicose)</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1070000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Hemopran (Hemorrhoidai, anti-varicose)</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>267500</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Hemopran (Hemorrhoidai, anti-varicose)</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>535000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Hemopran (Hemorrhoidai, anti-varicose)</v>
+      </c>
+      <c r="B28" s="1">
+        <v>19</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5082500</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B29" s="1">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1">
+        <v>113850</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B30" s="1">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>113850</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B31" s="1">
+        <v>261</v>
+      </c>
+      <c r="C31" s="1">
+        <v>990495</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B32" s="1">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B33" s="1">
+        <v>20</v>
+      </c>
+      <c r="C33" s="1">
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Imenir (Cefdinir 300mg)</v>
+      </c>
+      <c r="B34" s="1">
+        <v>30</v>
+      </c>
+      <c r="C34" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Kuplevotin (Levosulpirid 25mg)</v>
+      </c>
+      <c r="B35" s="1">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1">
+        <v>57500</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Mecefix-B.E (Cefixim 250mg)</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10</v>
+      </c>
+      <c r="C36" s="1">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Mecefix-B.E (Cefixim 250mg)</v>
+      </c>
+      <c r="B37" s="1">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1">
+        <v>161700</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Mimosa</v>
+      </c>
+      <c r="B38" s="1">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1">
+        <v>21450</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Otibsil (Otilonium bromid 40mg)</v>
+      </c>
+      <c r="B39" s="1">
+        <v>60</v>
+      </c>
+      <c r="C39" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Otibsil (Otilonium bromid 40mg)</v>
+      </c>
+      <c r="B40" s="1">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1">
+        <v>60375</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Otibsil (Otilonium bromid 40mg)</v>
+      </c>
+      <c r="B41" s="1">
+        <v>486</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1956150</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Otibsil (Otilonium bromid 40mg)</v>
+      </c>
+      <c r="B42" s="1">
+        <v>55</v>
+      </c>
+      <c r="C42" s="1">
+        <v>221375</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B43" s="1">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B44" s="1">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B45" s="1">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Stadpizide (Sulpirid 50mg)</v>
+      </c>
+      <c r="B46" s="1">
+        <v>20</v>
+      </c>
+      <c r="C46" s="1">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+      </c>
+      <c r="B47" s="1">
+        <v>20</v>
+      </c>
+      <c r="C47" s="1">
+        <v>176000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B23" s="1">
-        <v>4662</v>
-      </c>
-      <c r="C23" s="1">
-        <v>NaN</v>
+      <c r="B48" s="1">
+        <v>3562</v>
+      </c>
+      <c r="C48" s="1">
+        <v>42843420</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C48"/>
   </ignoredErrors>
 </worksheet>
 </file>